--- a/mappings/Mapping en definitie BRO GMW.xlsx
+++ b/mappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/branches/gld-export/Datamodels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/Datamodels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92332DE8-9098-446C-B4B0-DB57BE9E3E85}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BBA514-5627-4138-91E3-AE43CE20E22B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="318">
   <si>
     <t xml:space="preserve">RegistrationObject </t>
   </si>
@@ -958,6 +958,30 @@
   </si>
   <si>
     <t>IntermediateEvent</t>
+  </si>
+  <si>
+    <t>DvRespParty</t>
+  </si>
+  <si>
+    <t>Het KvK-nummer van de onderneming of de maatschappelijke activiteit van de rechtspersoon die het object aan de basisregistratie ondergrond heeft aangeleverd, of het equivalent daarvan in een handelsregister van een andere lidstaat van de Europese Unie dan Nederland.</t>
+  </si>
+  <si>
+    <t>De aanduiding van de kwaliteitseis waaraan de gegevens van het object voldoen.</t>
+  </si>
+  <si>
+    <t>De identificatie die door of voor de bronhouder is gebruikt om het object in de eigen administratie te kunnen vinden.</t>
+  </si>
+  <si>
+    <t>Het KvK-nummer van de maatschappelijke activiteit van de publiekrechtelijke rechtspersoon die bronhouder is van de gegevens in de basisregistratie ondergrond.</t>
+  </si>
+  <si>
+    <t>KvK-nummer</t>
+  </si>
+  <si>
+    <t>Tekst</t>
+  </si>
+  <si>
+    <t>BRO Identificatie</t>
   </si>
 </sst>
 </file>
@@ -1058,97 +1082,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,509 +1416,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6195" ySplit="540" topLeftCell="A22" activePane="bottomRight"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
         <v>305</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>187</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>187</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="4" t="s">
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" s="4" t="s">
+      <c r="S5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="2" t="s">
+      <c r="H6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
         <v>305</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" t="s">
         <v>102</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>113</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7"/>
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" t="s">
         <v>305</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8"/>
+      <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="26">
-        <v>1</v>
-      </c>
-      <c r="K8" s="26">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="2" t="s">
+      <c r="H8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O8" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9"/>
+      <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="26">
-        <v>1</v>
-      </c>
-      <c r="K9" s="26">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="11" t="s">
+      <c r="H9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" t="s">
+        <v>305</v>
+      </c>
+      <c r="P9" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>310</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J10" s="27">
-        <v>1</v>
-      </c>
-      <c r="K10" s="27">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" t="s">
         <v>305</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11"/>
       <c r="C11" t="s">
         <v>262</v>
       </c>
@@ -1949,10 +1951,10 @@
       <c r="H11" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="39">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
         <v>1</v>
       </c>
       <c r="M11" t="s">
@@ -1961,13 +1963,13 @@
       <c r="N11" t="s">
         <v>267</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" t="s">
         <v>305</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" t="s">
         <v>307</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="Q11" t="s">
         <v>307</v>
       </c>
       <c r="R11" t="s">
@@ -1977,68 +1979,69 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" t="s">
         <v>305</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" t="s">
         <v>306</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" t="s">
         <v>306</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" s="45" t="s">
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13"/>
       <c r="C13" t="s">
         <v>262</v>
       </c>
@@ -2054,10 +2057,10 @@
       <c r="H13" t="s">
         <v>270</v>
       </c>
-      <c r="J13" s="39">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
         <v>1</v>
       </c>
       <c r="M13" t="s">
@@ -2066,26 +2069,27 @@
       <c r="N13" t="s">
         <v>271</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" t="s">
         <v>147</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" t="s">
         <v>147</v>
       </c>
       <c r="R13" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14"/>
       <c r="C14" t="s">
         <v>262</v>
       </c>
@@ -2101,10 +2105,10 @@
       <c r="H14" t="s">
         <v>266</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="M14" t="s">
@@ -2113,29 +2117,30 @@
       <c r="N14" t="s">
         <v>274</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" t="s">
         <v>147</v>
       </c>
       <c r="R14" t="s">
         <v>169</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>84</v>
       </c>
       <c r="T14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15"/>
       <c r="C15" t="s">
         <v>262</v>
       </c>
@@ -2151,10 +2156,10 @@
       <c r="H15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="6">
         <v>1</v>
       </c>
       <c r="M15" t="s">
@@ -2163,26 +2168,27 @@
       <c r="N15" t="s">
         <v>277</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" t="s">
         <v>147</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" t="s">
         <v>147</v>
       </c>
       <c r="R15" t="s">
         <v>169</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16"/>
       <c r="C16" t="s">
         <v>262</v>
       </c>
@@ -2198,10 +2204,10 @@
       <c r="H16" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="39">
-        <v>1</v>
-      </c>
-      <c r="K16" s="39">
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
         <v>1</v>
       </c>
       <c r="M16" t="s">
@@ -2210,26 +2216,27 @@
       <c r="N16" t="s">
         <v>280</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" t="s">
         <v>147</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" t="s">
         <v>147</v>
       </c>
       <c r="R16" t="s">
         <v>107</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
+      <c r="B17"/>
       <c r="C17" t="s">
         <v>262</v>
       </c>
@@ -2245,10 +2252,10 @@
       <c r="H17" t="s">
         <v>266</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="6">
         <v>1</v>
       </c>
       <c r="M17" t="s">
@@ -2257,26 +2264,27 @@
       <c r="N17" t="s">
         <v>283</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" t="s">
         <v>147</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" t="s">
         <v>147</v>
       </c>
       <c r="R17" t="s">
         <v>169</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
+      <c r="B18"/>
       <c r="C18" t="s">
         <v>262</v>
       </c>
@@ -2292,10 +2300,10 @@
       <c r="H18" t="s">
         <v>270</v>
       </c>
-      <c r="J18" s="39">
-        <v>1</v>
-      </c>
-      <c r="K18" s="39">
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
         <v>1</v>
       </c>
       <c r="M18" t="s">
@@ -2304,26 +2312,27 @@
       <c r="N18" t="s">
         <v>286</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="s">
         <v>10</v>
       </c>
       <c r="R18" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
+      <c r="B19"/>
       <c r="C19" t="s">
         <v>262</v>
       </c>
@@ -2339,10 +2348,10 @@
       <c r="H19" t="s">
         <v>266</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="6">
         <v>1</v>
       </c>
       <c r="M19" t="s">
@@ -2351,26 +2360,27 @@
       <c r="N19" t="s">
         <v>289</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
         <v>10</v>
       </c>
       <c r="R19" t="s">
         <v>169</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
+      <c r="B20"/>
       <c r="C20" t="s">
         <v>262</v>
       </c>
@@ -2386,10 +2396,10 @@
       <c r="H20" t="s">
         <v>270</v>
       </c>
-      <c r="J20" s="39">
-        <v>1</v>
-      </c>
-      <c r="K20" s="39">
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
         <v>1</v>
       </c>
       <c r="M20" t="s">
@@ -2398,26 +2408,27 @@
       <c r="N20" t="s">
         <v>292</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
         <v>10</v>
       </c>
       <c r="R20" t="s">
         <v>107</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="s">
         <v>262</v>
       </c>
@@ -2433,10 +2444,10 @@
       <c r="H21" t="s">
         <v>266</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="6">
         <v>0</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="6">
         <v>1</v>
       </c>
       <c r="M21" t="s">
@@ -2445,26 +2456,27 @@
       <c r="N21" t="s">
         <v>295</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
         <v>10</v>
       </c>
       <c r="R21" t="s">
         <v>169</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="s">
         <v>262</v>
       </c>
@@ -2480,10 +2492,10 @@
       <c r="H22" t="s">
         <v>270</v>
       </c>
-      <c r="J22" s="39">
-        <v>1</v>
-      </c>
-      <c r="K22" s="39">
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
         <v>1</v>
       </c>
       <c r="M22" t="s">
@@ -2492,3362 +2504,3307 @@
       <c r="N22" t="s">
         <v>298</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
         <v>10</v>
       </c>
       <c r="R22" t="s">
         <v>107</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="40" t="s">
+      <c r="S22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="16">
         <v>0</v>
       </c>
-      <c r="K23" s="41">
-        <v>1</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" s="42" t="s">
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="O23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="R23" s="43" t="s">
+      <c r="O23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="S23" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="12" t="s">
+      <c r="S23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="26">
-        <v>1</v>
-      </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="2" t="s">
+      <c r="O24" t="s">
         <v>147</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" t="s">
         <v>147</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" t="s">
         <v>147</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>84</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="12" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="26">
-        <v>1</v>
-      </c>
-      <c r="K25" s="26">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="2" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="12" t="s">
+      <c r="S25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="2" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="12" t="s">
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="26">
-        <v>1</v>
-      </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="2" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="12" t="s">
+      <c r="S27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="26">
-        <v>1</v>
-      </c>
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="2" t="s">
+      <c r="O28" t="s">
         <v>147</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" t="s">
         <v>147</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" t="s">
         <v>147</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="12" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="26">
-        <v>1</v>
-      </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="2" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" t="s">
         <v>147</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" t="s">
         <v>147</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>147</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="15" t="s">
+      <c r="T29" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="12" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="26">
-        <v>1</v>
-      </c>
-      <c r="K30" s="26">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="2" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" t="s">
         <v>147</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" t="s">
         <v>147</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" t="s">
         <v>147</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="26">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="6">
         <v>0</v>
       </c>
-      <c r="K31" s="26">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="2" t="s">
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" t="s">
         <v>103</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" t="s">
         <v>304</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" t="s">
         <v>304</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="12" t="s">
+      <c r="S31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="26">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="6">
         <v>0</v>
       </c>
-      <c r="K32" s="26">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="2" t="s">
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" t="s">
         <v>103</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="12" t="s">
+      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="26">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="6">
         <v>0</v>
       </c>
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="2" t="s">
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" t="s">
         <v>305</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" t="s">
         <v>119</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" t="s">
         <v>119</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T33" s="2" t="s">
+      <c r="S33" t="s">
+        <v>85</v>
+      </c>
+      <c r="T33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="12" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="26">
-        <v>1</v>
-      </c>
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
         <v>84</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="2" t="s">
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" t="s">
         <v>103</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="P34" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="12" t="s">
+      <c r="S34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="26">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="6">
         <v>0</v>
       </c>
-      <c r="K35" s="26">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="s">
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
         <v>84</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="2" t="s">
+      <c r="M35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" t="s">
         <v>103</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P35" t="s">
         <v>163</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" t="s">
         <v>163</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T35" s="16" t="s">
+      <c r="S35" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="9" t="s">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="27">
-        <v>1</v>
-      </c>
-      <c r="K36" s="27">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="16">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="4" t="s">
+      <c r="M36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S36" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="12" t="s">
+      <c r="S36" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="26">
-        <v>1</v>
-      </c>
-      <c r="K37" s="28">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="2" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" t="s">
         <v>147</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" t="s">
         <v>147</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" t="s">
         <v>147</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="R37" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T37" s="2" t="s">
+      <c r="S37" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="12" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="26">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="6">
         <v>0</v>
       </c>
-      <c r="K38" s="17">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="2" t="s">
+      <c r="K38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" t="s">
         <v>147</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" t="s">
         <v>147</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" t="s">
         <v>147</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="R38" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T38" s="2" t="s">
+      <c r="S38" t="s">
+        <v>85</v>
+      </c>
+      <c r="T38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>225</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="6">
         <v>0</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="2" t="s">
+      <c r="M39" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" t="s">
         <v>122</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" t="s">
         <v>122</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T39" s="2" t="s">
+      <c r="S39" t="s">
+        <v>85</v>
+      </c>
+      <c r="T39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="26">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="6">
         <v>0</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="2" t="s">
+      <c r="M40" t="s">
+        <v>85</v>
+      </c>
+      <c r="O40" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="P40" t="s">
         <v>121</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" t="s">
         <v>121</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T40" s="2" t="s">
+      <c r="S40" t="s">
+        <v>85</v>
+      </c>
+      <c r="T40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>227</v>
       </c>
-      <c r="J41" s="26">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="2" t="s">
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>85</v>
+      </c>
+      <c r="O41" t="s">
         <v>147</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" t="s">
         <v>147</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" t="s">
         <v>147</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="R41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T41" s="2" t="s">
+      <c r="S41" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="26">
-        <v>1</v>
-      </c>
-      <c r="K42" s="11">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="2" t="s">
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" t="s">
         <v>147</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" t="s">
         <v>147</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q42" t="s">
         <v>147</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" t="s">
         <v>84</v>
       </c>
-      <c r="T42" s="14" t="s">
+      <c r="T42" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="26">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N43" s="36"/>
-      <c r="O43" s="2" t="s">
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" t="s">
         <v>103</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" t="s">
         <v>125</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" t="s">
         <v>125</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="S43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>230</v>
       </c>
-      <c r="J44" s="26">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="2" t="s">
+      <c r="O44" t="s">
         <v>147</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P44" t="s">
         <v>147</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q44" t="s">
         <v>147</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="14" t="s">
+      <c r="T44" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>231</v>
       </c>
-      <c r="J45" s="26">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>84</v>
       </c>
-      <c r="N45" s="36"/>
-      <c r="O45" s="2" t="s">
+      <c r="O45" t="s">
         <v>147</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P45" t="s">
         <v>147</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" t="s">
         <v>147</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="14" t="s">
+      <c r="T45" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>232</v>
       </c>
-      <c r="J46" s="26">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>84</v>
       </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" t="s">
         <v>147</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P46" t="s">
         <v>147</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" t="s">
         <v>147</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="14" t="s">
+      <c r="T46" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>233</v>
       </c>
-      <c r="J47" s="26">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>84</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="2" t="s">
+      <c r="M47" t="s">
+        <v>85</v>
+      </c>
+      <c r="O47" t="s">
         <v>103</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="P47" t="s">
         <v>128</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" t="s">
         <v>128</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" t="s">
         <v>94</v>
       </c>
-      <c r="S47" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="S47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J48" s="27">
-        <v>1</v>
-      </c>
-      <c r="K48" s="25">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="J48" s="16">
+        <v>1</v>
+      </c>
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N48" s="37"/>
-      <c r="O48" s="4" t="s">
+      <c r="M48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48" s="23"/>
+      <c r="O48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S48" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="12" t="s">
+      <c r="S48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="26">
-        <v>1</v>
-      </c>
-      <c r="K49" s="17">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N49" s="36"/>
-      <c r="O49" s="1" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>85</v>
+      </c>
+      <c r="O49" t="s">
         <v>129</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P49" t="s">
         <v>170</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q49" t="s">
         <v>170</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="12" t="s">
+      <c r="S49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="26">
-        <v>1</v>
-      </c>
-      <c r="K50" s="17">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N50" s="36"/>
-      <c r="O50" s="1" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>85</v>
+      </c>
+      <c r="O50" t="s">
         <v>129</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P50" t="s">
         <v>130</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" t="s">
         <v>130</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="12" t="s">
+      <c r="S50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="26">
-        <v>1</v>
-      </c>
-      <c r="K51" s="17">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N51" s="36"/>
-      <c r="O51" s="1" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" t="s">
         <v>129</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="P51" t="s">
         <v>132</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q51" t="s">
         <v>132</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S51" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="12" t="s">
+      <c r="S51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="26">
-        <v>1</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N52" s="36"/>
-      <c r="O52" s="2" t="s">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="6">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>85</v>
+      </c>
+      <c r="O52" t="s">
         <v>147</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="P52" t="s">
         <v>147</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" t="s">
         <v>147</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" t="s">
         <v>84</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="12" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="26">
-        <v>1</v>
-      </c>
-      <c r="K53" s="17">
-        <v>1</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N53" s="36"/>
-      <c r="O53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R53" s="3" t="s">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T53" s="1" t="s">
+      <c r="S53" t="s">
+        <v>85</v>
+      </c>
+      <c r="T53" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="12" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="26">
-        <v>1</v>
-      </c>
-      <c r="K54" s="17">
-        <v>1</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="36"/>
-      <c r="O54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R54" s="3" t="s">
+      <c r="O54" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="S54" t="s">
         <v>84</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="T54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="12" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="26">
-        <v>1</v>
-      </c>
-      <c r="K55" s="17">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="9">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
         <v>84</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="1" t="s">
+      <c r="M55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" t="s">
         <v>129</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="P55" t="s">
         <v>134</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="Q55" t="s">
         <v>134</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S55" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="12" t="s">
+      <c r="S55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="26">
-        <v>1</v>
-      </c>
-      <c r="K56" s="17">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>84</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="1" t="s">
+      <c r="M56" t="s">
+        <v>85</v>
+      </c>
+      <c r="O56" t="s">
         <v>129</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="P56" t="s">
         <v>135</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="Q56" t="s">
         <v>135</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="12" t="s">
+      <c r="S56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="26">
-        <v>1</v>
-      </c>
-      <c r="K57" s="17">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2" t="s">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
         <v>84</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N57" s="36"/>
-      <c r="O57" s="1" t="s">
+      <c r="M57" t="s">
+        <v>85</v>
+      </c>
+      <c r="O57" t="s">
         <v>129</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="P57" t="s">
         <v>131</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="Q57" t="s">
         <v>131</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T57" s="2" t="s">
+      <c r="S57" t="s">
+        <v>85</v>
+      </c>
+      <c r="T57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="12" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="26">
-        <v>1</v>
-      </c>
-      <c r="K58" s="17">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="s">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
         <v>84</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N58" s="36"/>
-      <c r="O58" s="1" t="s">
+      <c r="M58" t="s">
+        <v>85</v>
+      </c>
+      <c r="O58" t="s">
         <v>129</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="P58" t="s">
         <v>136</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="Q58" t="s">
         <v>136</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" t="s">
         <v>94</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="12" t="s">
+      <c r="S58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="26">
-        <v>1</v>
-      </c>
-      <c r="K59" s="17">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="9">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
         <v>84</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N59" s="36"/>
-      <c r="O59" s="1" t="s">
+      <c r="M59" t="s">
+        <v>85</v>
+      </c>
+      <c r="O59" t="s">
         <v>129</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="P59" t="s">
         <v>171</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="Q59" t="s">
         <v>171</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="9" t="s">
+      <c r="S59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="27">
-        <v>1</v>
-      </c>
-      <c r="K60" s="29">
-        <v>1</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="16">
+        <v>1</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N60" s="37"/>
-      <c r="O60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R60" s="6" t="s">
+      <c r="N60" s="23"/>
+      <c r="O60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R60" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T60" s="7" t="s">
+      <c r="T60" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="12" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="26">
-        <v>1</v>
-      </c>
-      <c r="K61" s="17">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N61" s="36"/>
-      <c r="O61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="3" t="s">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O61" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S61" s="3" t="s">
+      <c r="S61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="T61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="12" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="26">
-        <v>1</v>
-      </c>
-      <c r="K62" s="17">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1" t="s">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="6">
+        <v>1</v>
+      </c>
+      <c r="K62" s="9">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
         <v>84</v>
       </c>
-      <c r="N62" s="36"/>
-      <c r="O62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="O62" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="S62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>248</v>
       </c>
-      <c r="J63" s="26">
-        <v>1</v>
-      </c>
-      <c r="K63" s="17">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N63" s="36"/>
-      <c r="O63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R63" s="3" t="s">
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>85</v>
+      </c>
+      <c r="O63" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>10</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S63" s="3" t="s">
+      <c r="S63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="T63" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>249</v>
       </c>
-      <c r="J64" s="26">
-        <v>1</v>
-      </c>
-      <c r="K64" s="17">
-        <v>1</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N64" s="36"/>
-      <c r="O64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R64" s="3" t="s">
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>85</v>
+      </c>
+      <c r="O64" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>10</v>
+      </c>
+      <c r="R64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S64" s="3" t="s">
+      <c r="S64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="T64" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>250</v>
       </c>
-      <c r="J65" s="26">
-        <v>1</v>
-      </c>
-      <c r="K65" s="17">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
         <v>84</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N65" s="36"/>
-      <c r="O65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R65" s="3" t="s">
+      <c r="M65" t="s">
+        <v>85</v>
+      </c>
+      <c r="O65" t="s">
+        <v>10</v>
+      </c>
+      <c r="P65" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="S65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="T65" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J66" s="27">
-        <v>1</v>
-      </c>
-      <c r="K66" s="29">
-        <v>1</v>
-      </c>
-      <c r="L66" s="4" t="s">
+      <c r="J66" s="16">
+        <v>1</v>
+      </c>
+      <c r="K66" s="18">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N66" s="37"/>
-      <c r="O66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="6" t="s">
+      <c r="M66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N66" s="23"/>
+      <c r="O66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="S66" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T66" s="5" t="s">
+      <c r="T66" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" t="s">
         <v>252</v>
       </c>
-      <c r="J67" s="26">
-        <v>1</v>
-      </c>
-      <c r="K67" s="17">
-        <v>1</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N67" s="36"/>
-      <c r="O67" s="1" t="s">
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>85</v>
+      </c>
+      <c r="O67" t="s">
         <v>129</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="P67" t="s">
         <v>139</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="Q67" t="s">
         <v>139</v>
       </c>
-      <c r="R67" s="3" t="s">
+      <c r="R67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S67" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
+      <c r="S67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>253</v>
       </c>
-      <c r="J68" s="26">
-        <v>1</v>
-      </c>
-      <c r="K68" s="17">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2" t="s">
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="9">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
         <v>84</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N68" s="36"/>
-      <c r="O68" s="1" t="s">
+      <c r="M68" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" t="s">
         <v>129</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="P68" t="s">
         <v>137</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="Q68" t="s">
         <v>137</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="R68" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S68" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
+      <c r="S68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" t="s">
         <v>254</v>
       </c>
-      <c r="J69" s="26">
-        <v>1</v>
-      </c>
-      <c r="K69" s="17">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2" t="s">
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="9">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
         <v>84</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N69" s="36"/>
-      <c r="O69" s="1" t="s">
+      <c r="M69" t="s">
+        <v>85</v>
+      </c>
+      <c r="O69" t="s">
         <v>129</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="P69" t="s">
         <v>140</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="Q69" t="s">
         <v>140</v>
       </c>
-      <c r="R69" s="3" t="s">
+      <c r="R69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S69" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="12" t="s">
+      <c r="S69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="26">
-        <v>1</v>
-      </c>
-      <c r="K70" s="17">
-        <v>1</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N70" s="36"/>
-      <c r="O70" s="2" t="s">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="6">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>85</v>
+      </c>
+      <c r="O70" t="s">
         <v>147</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="P70" t="s">
         <v>147</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="Q70" t="s">
         <v>147</v>
       </c>
-      <c r="R70" s="3" t="s">
+      <c r="R70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="S70" t="s">
         <v>84</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="T70" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="12" t="s">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="26">
-        <v>1</v>
-      </c>
-      <c r="K71" s="17">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N71" s="36"/>
-      <c r="O71" s="1" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="6">
+        <v>1</v>
+      </c>
+      <c r="K71" s="9">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>85</v>
+      </c>
+      <c r="O71" t="s">
         <v>129</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="P71" t="s">
         <v>138</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="Q71" t="s">
         <v>138</v>
       </c>
-      <c r="R71" s="3" t="s">
+      <c r="R71" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S71" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="12" t="s">
+      <c r="S71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
         <v>100</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="6">
         <v>0</v>
       </c>
-      <c r="K72" s="17">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1" t="s">
+      <c r="K72" s="9">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
         <v>84</v>
       </c>
-      <c r="N72" s="36"/>
-      <c r="O72" s="1" t="s">
+      <c r="O72" t="s">
         <v>129</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="P72" t="s">
         <v>141</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="Q72" t="s">
         <v>141</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="R72" t="s">
         <v>94</v>
       </c>
-      <c r="S72" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="12" t="s">
+      <c r="S72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" t="s">
         <v>101</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="6">
         <v>0</v>
       </c>
-      <c r="K73" s="17">
-        <v>1</v>
-      </c>
-      <c r="M73" s="1" t="s">
+      <c r="K73" s="9">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
         <v>84</v>
       </c>
-      <c r="N73" s="36"/>
-      <c r="O73" s="1" t="s">
+      <c r="O73" t="s">
         <v>129</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P73" t="s">
         <v>142</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q73" t="s">
         <v>142</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" t="s">
         <v>94</v>
       </c>
-      <c r="S73" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
+      <c r="S73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="26">
-        <v>1</v>
-      </c>
-      <c r="K74" s="17">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2" t="s">
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
         <v>28</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N74" s="36"/>
-      <c r="O74" s="2" t="s">
+      <c r="M74" t="s">
+        <v>85</v>
+      </c>
+      <c r="O74" t="s">
         <v>147</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="P74" t="s">
         <v>147</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" t="s">
         <v>147</v>
       </c>
-      <c r="R74" s="3" t="s">
+      <c r="R74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T74" s="2" t="s">
+      <c r="S74" t="s">
+        <v>85</v>
+      </c>
+      <c r="T74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" t="s">
         <v>257</v>
       </c>
-      <c r="J75" s="26">
+      <c r="J75" s="6">
         <v>0</v>
       </c>
-      <c r="K75" s="17">
-        <v>1</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N75" s="36"/>
-      <c r="O75" s="1" t="s">
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
         <v>129</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="P75" t="s">
         <v>145</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="Q75" t="s">
         <v>145</v>
       </c>
-      <c r="R75" s="3" t="s">
+      <c r="R75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S75" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="S75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>81</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" t="s">
         <v>258</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J76" s="6">
         <v>0</v>
       </c>
-      <c r="K76" s="17">
-        <v>1</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N76" s="36"/>
-      <c r="O76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="3" t="s">
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>85</v>
+      </c>
+      <c r="O76" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="S76" t="s">
         <v>84</v>
       </c>
-      <c r="T76" s="16" t="s">
+      <c r="T76" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" t="s">
         <v>259</v>
       </c>
-      <c r="J77" s="26">
+      <c r="J77" s="6">
         <v>0</v>
       </c>
-      <c r="K77" s="17">
-        <v>1</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N77" s="36"/>
-      <c r="O77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R77" s="3" t="s">
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>85</v>
+      </c>
+      <c r="O77" t="s">
+        <v>10</v>
+      </c>
+      <c r="P77" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="S77" t="s">
         <v>84</v>
       </c>
-      <c r="T77" s="16" t="s">
+      <c r="T77" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19" t="s">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="J78" s="31">
+      <c r="J78" s="20">
         <v>0</v>
       </c>
-      <c r="K78" s="30">
-        <v>1</v>
-      </c>
-      <c r="M78" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P78" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R78" s="21" t="s">
+      <c r="K78" s="19">
+        <v>1</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N78" s="24"/>
+      <c r="O78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="S78" s="19" t="s">
+      <c r="S78" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="T78" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O79" s="2" t="s">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L79" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" t="s">
+        <v>90</v>
+      </c>
+      <c r="O79" t="s">
         <v>105</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="P79" t="s">
         <v>152</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="Q79" t="s">
         <v>152</v>
       </c>
-      <c r="R79" s="11" t="s">
+      <c r="R79" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S79" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="S79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L80" t="s">
+        <v>90</v>
+      </c>
+      <c r="M80" t="s">
+        <v>90</v>
+      </c>
+      <c r="O80" t="s">
         <v>105</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="P80" t="s">
         <v>153</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Q80" t="s">
         <v>153</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S80" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O81" s="2" t="s">
+      <c r="S80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81" t="s">
+        <v>90</v>
+      </c>
+      <c r="M81" t="s">
+        <v>90</v>
+      </c>
+      <c r="O81" t="s">
         <v>105</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="P81" t="s">
         <v>167</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="Q81" t="s">
         <v>167</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="R81" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O82" s="1" t="s">
+      <c r="S81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L82" t="s">
+        <v>90</v>
+      </c>
+      <c r="M82" t="s">
+        <v>90</v>
+      </c>
+      <c r="O82" t="s">
         <v>129</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="P82" t="s">
         <v>154</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="Q82" t="s">
         <v>154</v>
       </c>
-      <c r="R82" s="3" t="s">
+      <c r="R82" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O83" s="1" t="s">
+      <c r="S82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L83" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" t="s">
         <v>129</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="P83" t="s">
         <v>155</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="Q83" t="s">
         <v>155</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="R83" t="s">
         <v>160</v>
       </c>
-      <c r="S83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O84" s="1" t="s">
+      <c r="S83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L84" t="s">
+        <v>90</v>
+      </c>
+      <c r="M84" t="s">
+        <v>90</v>
+      </c>
+      <c r="O84" t="s">
         <v>129</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="P84" t="s">
         <v>156</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="Q84" t="s">
         <v>156</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S84" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O85" s="1" t="s">
+      <c r="S84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L85" t="s">
+        <v>90</v>
+      </c>
+      <c r="M85" t="s">
+        <v>90</v>
+      </c>
+      <c r="O85" t="s">
         <v>129</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="P85" t="s">
         <v>157</v>
       </c>
-      <c r="Q85" s="2" t="s">
+      <c r="Q85" t="s">
         <v>157</v>
       </c>
-      <c r="R85" s="3" t="s">
+      <c r="R85" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S85" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O86" s="1" t="s">
+      <c r="S85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L86" t="s">
+        <v>90</v>
+      </c>
+      <c r="M86" t="s">
+        <v>90</v>
+      </c>
+      <c r="O86" t="s">
         <v>129</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="P86" t="s">
         <v>302</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="Q86" t="s">
         <v>302</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="R86" t="s">
         <v>113</v>
       </c>
-      <c r="S86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O87" s="2" t="s">
+      <c r="S86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L87" t="s">
+        <v>90</v>
+      </c>
+      <c r="M87" t="s">
+        <v>90</v>
+      </c>
+      <c r="O87" t="s">
         <v>103</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="P87" t="s">
         <v>165</v>
       </c>
-      <c r="Q87" s="2" t="s">
+      <c r="Q87" t="s">
         <v>165</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="R87" t="s">
         <v>99</v>
       </c>
-      <c r="S87" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O88" s="2" t="s">
+      <c r="S87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L88" t="s">
+        <v>90</v>
+      </c>
+      <c r="M88" t="s">
+        <v>90</v>
+      </c>
+      <c r="O88" t="s">
         <v>103</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="P88" t="s">
         <v>166</v>
       </c>
-      <c r="Q88" s="2" t="s">
+      <c r="Q88" t="s">
         <v>166</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="R88" t="s">
         <v>99</v>
       </c>
-      <c r="S88" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O89" s="2" t="s">
+      <c r="S88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L89" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" t="s">
+        <v>90</v>
+      </c>
+      <c r="O89" t="s">
         <v>103</v>
       </c>
-      <c r="P89" s="2" t="s">
+      <c r="P89" t="s">
         <v>158</v>
       </c>
-      <c r="Q89" s="2" t="s">
+      <c r="Q89" t="s">
         <v>158</v>
       </c>
-      <c r="R89" s="3" t="s">
+      <c r="R89" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S89" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O90" s="2" t="s">
+      <c r="S89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L90" t="s">
+        <v>90</v>
+      </c>
+      <c r="M90" t="s">
+        <v>90</v>
+      </c>
+      <c r="O90" t="s">
         <v>103</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="P90" t="s">
         <v>159</v>
       </c>
-      <c r="Q90" s="2" t="s">
+      <c r="Q90" t="s">
         <v>159</v>
       </c>
-      <c r="R90" s="3" t="s">
+      <c r="R90" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S90" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O91" s="2" t="s">
+      <c r="S90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L91" t="s">
+        <v>90</v>
+      </c>
+      <c r="M91" t="s">
+        <v>90</v>
+      </c>
+      <c r="O91" t="s">
         <v>103</v>
       </c>
-      <c r="P91" s="2" t="s">
+      <c r="P91" t="s">
         <v>161</v>
       </c>
-      <c r="Q91" s="2" t="s">
+      <c r="Q91" t="s">
         <v>161</v>
       </c>
-      <c r="R91" s="11" t="s">
+      <c r="R91" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="S91" t="s">
         <v>85</v>
       </c>
     </row>
